--- a/CAPITAL_ASSETS_PIC_URL.xlsx
+++ b/CAPITAL_ASSETS_PIC_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yahaya Yusuf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd2a01e598eec2/Work Documents/GitHub/PropcomAssetPics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3222EA1A-429D-41C1-8147-A773070209C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3222EA1A-429D-41C1-8147-A773070209C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{699EF49A-83D9-413C-951F-B8B787D0E44B}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3204" windowWidth="21480" windowHeight="7104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21480" windowHeight="7104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picURL" sheetId="2" r:id="rId1"/>
@@ -245,7 +245,98 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -256,6 +347,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F732401-C982-4611-9637-6C728BBE8A20}" name="picURL_tbl" displayName="picURL_tbl" ref="A1:F31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:F31" xr:uid="{0F732401-C982-4611-9637-6C728BBE8A20}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{20EB4A4B-03EE-4B37-A30E-FEA99C76C488}" name="RecordID"/>
+    <tableColumn id="2" xr3:uid="{648D6EA8-3124-4141-9954-888782218463}" name="Path1"/>
+    <tableColumn id="3" xr3:uid="{23D56D54-E288-49A5-8680-98B5B2ED281F}" name="picfolder"/>
+    <tableColumn id="4" xr3:uid="{B5307FBA-9315-44DF-8C0E-C3BA0A6073B7}" name="itemName" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B3D84544-75AB-4683-AE2E-B986D2E174AB}" name="Suffix" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E97C1E16-2853-41C9-82A2-10D85EBE6C74}" name="Pic_URL" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT(B2,C2,D2,E2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,15 +686,16 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="100.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,5 +1352,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/CAPITAL_ASSETS_PIC_URL.xlsx
+++ b/CAPITAL_ASSETS_PIC_URL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd2a01e598eec2/Work Documents/GitHub/PropcomAssetPics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3222EA1A-429D-41C1-8147-A773070209C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{699EF49A-83D9-413C-951F-B8B787D0E44B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3222EA1A-429D-41C1-8147-A773070209C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73542B85-8491-4DC6-A6D5-C194FD5C4781}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21480" windowHeight="7104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picURL" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
   <si>
     <t>00002</t>
   </si>
@@ -349,16 +349,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F732401-C982-4611-9637-6C728BBE8A20}" name="picURL_tbl" displayName="picURL_tbl" ref="A1:F31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F732401-C982-4611-9637-6C728BBE8A20}" name="picURL_tbl" displayName="picURL_tbl" ref="A1:F31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:F31" xr:uid="{0F732401-C982-4611-9637-6C728BBE8A20}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{20EB4A4B-03EE-4B37-A30E-FEA99C76C488}" name="RecordID"/>
     <tableColumn id="2" xr3:uid="{648D6EA8-3124-4141-9954-888782218463}" name="Path1"/>
     <tableColumn id="3" xr3:uid="{23D56D54-E288-49A5-8680-98B5B2ED281F}" name="picfolder"/>
-    <tableColumn id="4" xr3:uid="{B5307FBA-9315-44DF-8C0E-C3BA0A6073B7}" name="itemName" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B3D84544-75AB-4683-AE2E-B986D2E174AB}" name="Suffix" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E97C1E16-2853-41C9-82A2-10D85EBE6C74}" name="Pic_URL" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{B5307FBA-9315-44DF-8C0E-C3BA0A6073B7}" name="itemName" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B3D84544-75AB-4683-AE2E-B986D2E174AB}" name="Suffix" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E97C1E16-2853-41C9-82A2-10D85EBE6C74}" name="Pic_URL" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT(B2,C2,D2,E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -686,7 +690,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +787,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
